--- a/Assets/StreamingAssets/Table/GalSet@.xlsx
+++ b/Assets/StreamingAssets/Table/GalSet@.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B805229-DFE0-480C-BE94-86AA8B4D0758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FD861-9A9F-421C-BA60-17AFE59C6BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="4770" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8670" yWindow="2820" windowWidth="17385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,14 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,27 +118,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[1,6]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>起止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7,25]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[26,37]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[37,43]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>startStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[6,24]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,36]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[36,42]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -192,7 +179,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -513,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="A1:E8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -526,19 +513,19 @@
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -559,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -586,19 +573,19 @@
     </row>
     <row r="3" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -614,20 +601,22 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:18" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -643,20 +632,20 @@
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
+      <c r="A5" s="2">
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -673,20 +662,20 @@
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
+      <c r="A6" s="2">
+        <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -703,19 +692,21 @@
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
+      <c r="A7" s="2">
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -731,18 +722,20 @@
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
+      <c r="A8" s="2">
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>

--- a/Assets/StreamingAssets/Table/GalSet@.xlsx
+++ b/Assets/StreamingAssets/Table/GalSet@.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388FD861-9A9F-421C-BA60-17AFE59C6BB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E1E5A8-345C-4E03-895C-9B0BB33AD32F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="2820" windowWidth="17385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9015" yWindow="3165" windowWidth="17385" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gal" sheetId="1" r:id="rId1"/>
@@ -138,11 +138,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[25,36]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[36,42]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25,35]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -702,7 +702,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
